--- a/TempsPerfUniversite.xlsx
+++ b/TempsPerfUniversite.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projets\perfuniversity\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10668"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="9156"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A30" sqref="A30:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>

--- a/TempsPerfUniversite.xlsx
+++ b/TempsPerfUniversite.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="9156"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22800" windowHeight="9156" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,135 +28,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Titre</t>
   </si>
   <si>
-    <t>Qui</t>
-  </si>
-  <si>
-    <t>Temps (min.)</t>
-  </si>
-  <si>
-    <t>Présentation de l'équipe</t>
-  </si>
-  <si>
-    <t>Tous</t>
-  </si>
-  <si>
     <t>MBO</t>
   </si>
   <si>
-    <t>Les grands thèmes</t>
-  </si>
-  <si>
-    <t>Notre vision des performances</t>
-  </si>
-  <si>
-    <t>Cycle d'optimisation</t>
-  </si>
-  <si>
-    <t>Méthodologie d'un test de charge</t>
-  </si>
-  <si>
-    <t>Présentation de l'application</t>
-  </si>
-  <si>
     <t>HTR</t>
   </si>
   <si>
-    <t>Les outils utilisés aujourd'hui</t>
-  </si>
-  <si>
-    <t>Recording Gatling</t>
-  </si>
-  <si>
-    <t>Différents tests de charge</t>
-  </si>
-  <si>
-    <t>Exécution du test unitaire</t>
-  </si>
-  <si>
     <t>Test de charge</t>
   </si>
   <si>
-    <t>Cible de performance</t>
-  </si>
-  <si>
-    <t>Remplissage des données avec démo</t>
-  </si>
-  <si>
-    <t>Exécution des tests de charge</t>
-  </si>
-  <si>
-    <t>Premier problème de performance</t>
-  </si>
-  <si>
-    <t>Diagramme d'architecture HT</t>
-  </si>
-  <si>
-    <t>Thread dump</t>
-  </si>
-  <si>
-    <t>Nmon</t>
-  </si>
-  <si>
-    <t>Long queries</t>
-  </si>
-  <si>
     <t>LPI</t>
   </si>
   <si>
-    <t>Explain Plan</t>
-  </si>
-  <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>Nouveau test de charge</t>
-  </si>
-  <si>
-    <t>Monitoring temps réel</t>
-  </si>
-  <si>
     <t>MRO</t>
   </si>
   <si>
-    <t>Met en place JMX</t>
-  </si>
-  <si>
     <t>Test de rupture</t>
   </si>
   <si>
-    <t>Demo test de rupture</t>
-  </si>
-  <si>
-    <t>Automatisation des tests de charge</t>
-  </si>
-  <si>
-    <t>Test d'endurance</t>
-  </si>
-  <si>
-    <t>Profiler</t>
-  </si>
-  <si>
-    <t>Correction du memory leak</t>
-  </si>
-  <si>
-    <t>Tuning GC</t>
-  </si>
-  <si>
-    <t>Résolution problème disque</t>
-  </si>
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
     <t>Pause</t>
   </si>
   <si>
-    <t>Résolution autre problème d'infra (réseau ?)</t>
+    <t>Pré-générique</t>
+  </si>
+  <si>
+    <t>Méthodo</t>
+  </si>
+  <si>
+    <t>Type de test</t>
+  </si>
+  <si>
+    <t>Test unitaire</t>
+  </si>
+  <si>
+    <t>Tuning DB</t>
+  </si>
+  <si>
+    <t>Injection de données</t>
+  </si>
+  <si>
+    <t>Gatling</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Graphite</t>
+  </si>
+  <si>
+    <t>Metrics systems</t>
+  </si>
+  <si>
+    <t>Tuning</t>
+  </si>
+  <si>
+    <t>Test de vieillissement</t>
+  </si>
+  <si>
+    <t>Tuning système</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Automatisation des tests</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Étiquettes de lignes</t>
+  </si>
+  <si>
+    <t>(vide)</t>
+  </si>
+  <si>
+    <t>Total général</t>
+  </si>
+  <si>
+    <t>Somme de Minutes</t>
   </si>
 </sst>
 </file>
@@ -168,18 +133,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,9 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,6 +175,201 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="mbo" refreshedDate="41739.687624537037" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="20">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C21" sheet="Feuil1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Titre" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Theme" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="HTR"/>
+        <s v="MBO"/>
+        <s v="LPI"/>
+        <m/>
+        <s v="MRO"/>
+        <s v="ALL"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Minutes" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="15"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="20">
+  <r>
+    <s v="Pré-générique"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="Méthodo"/>
+    <x v="1"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <s v="Type de test"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Test unitaire"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="Tuning DB"/>
+    <x v="2"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <s v="Test de charge"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Injection de données"/>
+    <x v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="Pause"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Gatling"/>
+    <x v="0"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <s v="Test de charge"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="Automatisation des tests"/>
+    <x v="4"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <s v="Test de rupture"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <s v="Metrics"/>
+    <x v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <s v="Graphite"/>
+    <x v="4"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <s v="Metrics systems"/>
+    <x v="2"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="Pause"/>
+    <x v="3"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Tuning"/>
+    <x v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <s v="Test de vieillissement"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <s v="Tuning système"/>
+    <x v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <s v="Conclusion"/>
+    <x v="5"/>
+    <n v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tableau croisé dynamique1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Somme de Minutes" fld="2" baseField="1" baseItem="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,10 +635,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A3:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="3">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C31"/>
+      <selection activeCell="E9" sqref="E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,14 +732,14 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E1">
         <f>SUM(C:C)</f>
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="G1">
         <v>180</v>
@@ -508,32 +747,32 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -541,32 +780,32 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>5</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -574,24 +813,18 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -599,40 +832,40 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -640,272 +873,83 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="1">
         <v>10</v>
       </c>
     </row>
